--- a/Peak_Reflected_Pressure/MSE.xlsx
+++ b/Peak_Reflected_Pressure/MSE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3893344</v>
+        <v>532112.5</v>
       </c>
       <c r="C2" t="n">
-        <v>12231035</v>
+        <v>401880.34375</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3348709.25</v>
+        <v>279782.4375</v>
       </c>
       <c r="C3" t="n">
-        <v>10575400</v>
+        <v>227138.21875</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2796935</v>
+        <v>163379.6875</v>
       </c>
       <c r="C4" t="n">
-        <v>9140711</v>
+        <v>156162.671875</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2216520.75</v>
+        <v>122837.453125</v>
       </c>
       <c r="C5" t="n">
-        <v>7465017.5</v>
+        <v>104319.9765625</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1795122.125</v>
+        <v>88335.5703125</v>
       </c>
       <c r="C6" t="n">
-        <v>6335102.5</v>
+        <v>71212.1875</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1477795.625</v>
+        <v>62054.82421875</v>
       </c>
       <c r="C7" t="n">
-        <v>5454757</v>
+        <v>59475.4921875</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1296526.125</v>
+        <v>49482.51171875</v>
       </c>
       <c r="C8" t="n">
-        <v>4714807</v>
+        <v>44994.14453125</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1272646.5</v>
+        <v>44215.5703125</v>
       </c>
       <c r="C9" t="n">
-        <v>4463891.5</v>
+        <v>43434.03515625</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>983445.8125</v>
+        <v>39961.0703125</v>
       </c>
       <c r="C10" t="n">
-        <v>5196764</v>
+        <v>42578.2421875</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1028934</v>
+        <v>42545.2109375</v>
       </c>
       <c r="C11" t="n">
-        <v>3781394.5</v>
+        <v>54355.9296875</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>875246.75</v>
+        <v>41735.61328125</v>
       </c>
       <c r="C12" t="n">
-        <v>3275481.25</v>
+        <v>48687.2421875</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>888081.25</v>
+        <v>37109.34765625</v>
       </c>
       <c r="C13" t="n">
-        <v>3558253.25</v>
+        <v>45662.8125</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>800455.25</v>
+        <v>37230.10546875</v>
       </c>
       <c r="C14" t="n">
-        <v>3004972</v>
+        <v>47222.0625</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>803230.25</v>
+        <v>35923.9375</v>
       </c>
       <c r="C15" t="n">
-        <v>2992363.25</v>
+        <v>41728.41796875</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>710117.6875</v>
+        <v>37855.53125</v>
       </c>
       <c r="C16" t="n">
-        <v>3076049.5</v>
+        <v>39917.75390625</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>760847.875</v>
+        <v>34469.37109375</v>
       </c>
       <c r="C17" t="n">
-        <v>3458965.25</v>
+        <v>78658.46875</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>767380.625</v>
+        <v>35142.59765625</v>
       </c>
       <c r="C18" t="n">
-        <v>3249881</v>
+        <v>37862.11328125</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>686962.8125</v>
+        <v>31504.87109375</v>
       </c>
       <c r="C19" t="n">
-        <v>4149208.75</v>
+        <v>50258.09375</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>642371.0625</v>
+        <v>30158.51171875</v>
       </c>
       <c r="C20" t="n">
-        <v>2523102</v>
+        <v>35127.203125</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>605651.125</v>
+        <v>33094.92578125</v>
       </c>
       <c r="C21" t="n">
-        <v>2545831.75</v>
+        <v>34435.21875</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>497331.625</v>
+        <v>30166.685546875</v>
       </c>
       <c r="C22" t="n">
-        <v>2529575.5</v>
+        <v>34089.74609375</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>490322.8125</v>
+        <v>31122.501953125</v>
       </c>
       <c r="C23" t="n">
-        <v>2199209.25</v>
+        <v>37737.953125</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>606009.3125</v>
+        <v>28034.908203125</v>
       </c>
       <c r="C24" t="n">
-        <v>1987201.5</v>
+        <v>30845.1875</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>437878.0625</v>
+        <v>28501.962890625</v>
       </c>
       <c r="C25" t="n">
-        <v>2817031.5</v>
+        <v>28344.3671875</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>407508.46875</v>
+        <v>28417.427734375</v>
       </c>
       <c r="C26" t="n">
-        <v>2559329.75</v>
+        <v>26091.03125</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>397560.125</v>
+        <v>28252.35546875</v>
       </c>
       <c r="C27" t="n">
-        <v>2969355.75</v>
+        <v>33070.20703125</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>447702.21875</v>
+        <v>22948.08203125</v>
       </c>
       <c r="C28" t="n">
-        <v>2492172.75</v>
+        <v>20917.236328125</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>380911.15625</v>
+        <v>22816.025390625</v>
       </c>
       <c r="C29" t="n">
-        <v>1988330.5</v>
+        <v>20633.447265625</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>360984.4375</v>
+        <v>25490.623046875</v>
       </c>
       <c r="C30" t="n">
-        <v>2195536.75</v>
+        <v>59046.015625</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>371516.34375</v>
+        <v>23696.25390625</v>
       </c>
       <c r="C31" t="n">
-        <v>1806926.75</v>
+        <v>22279.548828125</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>351304.90625</v>
+        <v>21007.787109375</v>
       </c>
       <c r="C32" t="n">
-        <v>2136809</v>
+        <v>16724.51171875</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>313579.65625</v>
+        <v>20244.556640625</v>
       </c>
       <c r="C33" t="n">
-        <v>1848681.125</v>
+        <v>17361.890625</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>337004.5625</v>
+        <v>20789.6875</v>
       </c>
       <c r="C34" t="n">
-        <v>1842619.25</v>
+        <v>16992.890625</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>277472.6875</v>
+        <v>19807.36328125</v>
       </c>
       <c r="C35" t="n">
-        <v>2016319.875</v>
+        <v>14405.5390625</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>291834.65625</v>
+        <v>17763.2890625</v>
       </c>
       <c r="C36" t="n">
-        <v>2357700.75</v>
+        <v>14129.30859375</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>287113.15625</v>
+        <v>17554.794921875</v>
       </c>
       <c r="C37" t="n">
-        <v>1768331.125</v>
+        <v>19299.68359375</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>327222.4375</v>
+        <v>17021.3515625</v>
       </c>
       <c r="C38" t="n">
-        <v>1885710.25</v>
+        <v>13399.4140625</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>260184.78125</v>
+        <v>19065.66796875</v>
       </c>
       <c r="C39" t="n">
-        <v>2720651</v>
+        <v>12824.04296875</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>391853.8125</v>
+        <v>19105.75</v>
       </c>
       <c r="C40" t="n">
-        <v>3189450.5</v>
+        <v>33379.94921875</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>484612.40625</v>
+        <v>20141.923828125</v>
       </c>
       <c r="C41" t="n">
-        <v>3318340.5</v>
+        <v>20111.435546875</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>353438.40625</v>
+        <v>19304.58984375</v>
       </c>
       <c r="C42" t="n">
-        <v>2417335.75</v>
+        <v>19571.904296875</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>242482.5</v>
+        <v>20415.373046875</v>
       </c>
       <c r="C43" t="n">
-        <v>1900939.625</v>
+        <v>19349.380859375</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>221090.96875</v>
+        <v>17001.064453125</v>
       </c>
       <c r="C44" t="n">
-        <v>1430800</v>
+        <v>24682.328125</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>323361.9375</v>
+        <v>21905.72265625</v>
       </c>
       <c r="C45" t="n">
-        <v>1761806.875</v>
+        <v>15988.708984375</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>190145.453125</v>
+        <v>17661.03515625</v>
       </c>
       <c r="C46" t="n">
-        <v>2158740</v>
+        <v>13311.0458984375</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>247630.59375</v>
+        <v>19303.322265625</v>
       </c>
       <c r="C47" t="n">
-        <v>1740478.25</v>
+        <v>13409.1181640625</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>387238.375</v>
+        <v>20623.095703125</v>
       </c>
       <c r="C48" t="n">
-        <v>2013302.125</v>
+        <v>12656.7392578125</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>337874.75</v>
+        <v>19938.384765625</v>
       </c>
       <c r="C49" t="n">
-        <v>2129613.75</v>
+        <v>18611.857421875</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>266864.09375</v>
+        <v>16963.478515625</v>
       </c>
       <c r="C50" t="n">
-        <v>3468653</v>
+        <v>23829.2734375</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>277197.90625</v>
+        <v>19437.525390625</v>
       </c>
       <c r="C51" t="n">
-        <v>2016564.5</v>
+        <v>22071.9375</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>212674.578125</v>
+        <v>17820.15625</v>
       </c>
       <c r="C52" t="n">
-        <v>1662657.125</v>
+        <v>13175.5810546875</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>193160.21875</v>
+        <v>16847.5</v>
       </c>
       <c r="C53" t="n">
-        <v>1489460.375</v>
+        <v>15310.548828125</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>240283.65625</v>
+        <v>18905.611328125</v>
       </c>
       <c r="C54" t="n">
-        <v>1274192.375</v>
+        <v>16738.806640625</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>665353.5625</v>
+        <v>16393.974609375</v>
       </c>
       <c r="C55" t="n">
-        <v>4414737.5</v>
+        <v>11823.490234375</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>738544.3125</v>
+        <v>15138.376953125</v>
       </c>
       <c r="C56" t="n">
-        <v>1838641.75</v>
+        <v>17260.98046875</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>259543.421875</v>
+        <v>15360.125</v>
       </c>
       <c r="C57" t="n">
-        <v>1922601</v>
+        <v>11538.162109375</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>256048.515625</v>
+        <v>17416.7578125</v>
       </c>
       <c r="C58" t="n">
-        <v>1819243.625</v>
+        <v>15482.130859375</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>204888.171875</v>
+        <v>17804.837890625</v>
       </c>
       <c r="C59" t="n">
-        <v>2326753.5</v>
+        <v>11549.892578125</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>205645.1875</v>
+        <v>18680.658203125</v>
       </c>
       <c r="C60" t="n">
-        <v>2029337.625</v>
+        <v>12046.0263671875</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>198669.578125</v>
+        <v>17457.076171875</v>
       </c>
       <c r="C61" t="n">
-        <v>1966393.25</v>
+        <v>18619.03515625</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>159572.90625</v>
+        <v>19744.64453125</v>
       </c>
       <c r="C62" t="n">
-        <v>1819476.875</v>
+        <v>19664.75390625</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>157584.65625</v>
+        <v>17347.8203125</v>
       </c>
       <c r="C63" t="n">
-        <v>1808190.375</v>
+        <v>17527.326171875</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>119712.5078125</v>
+        <v>14878.8671875</v>
       </c>
       <c r="C64" t="n">
-        <v>1646274.5</v>
+        <v>12120.5244140625</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>128578.4453125</v>
+        <v>17102.34765625</v>
       </c>
       <c r="C65" t="n">
-        <v>1511153.875</v>
+        <v>23138.65625</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>136341.71875</v>
+        <v>16328.931640625</v>
       </c>
       <c r="C66" t="n">
-        <v>1850719.25</v>
+        <v>33962.82421875</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>118416.828125</v>
+        <v>16251.1943359375</v>
       </c>
       <c r="C67" t="n">
-        <v>1458336</v>
+        <v>15420.83984375</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>122364.3671875</v>
+        <v>14931.65234375</v>
       </c>
       <c r="C68" t="n">
-        <v>1780425</v>
+        <v>16500.828125</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>124318.84375</v>
+        <v>16095.7138671875</v>
       </c>
       <c r="C69" t="n">
-        <v>1375829.125</v>
+        <v>13462.2333984375</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>109999.453125</v>
+        <v>16102.8720703125</v>
       </c>
       <c r="C70" t="n">
-        <v>1701593.125</v>
+        <v>12699.0439453125</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>104210.7109375</v>
+        <v>16381.259765625</v>
       </c>
       <c r="C71" t="n">
-        <v>1976169.375</v>
+        <v>19694.267578125</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>143582.65625</v>
+        <v>15772.0927734375</v>
       </c>
       <c r="C72" t="n">
-        <v>1858335.125</v>
+        <v>12177.9619140625</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>179366.109375</v>
+        <v>18394.595703125</v>
       </c>
       <c r="C73" t="n">
-        <v>3018986.25</v>
+        <v>22670.251953125</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>221528.59375</v>
+        <v>15178.3876953125</v>
       </c>
       <c r="C74" t="n">
-        <v>1378333.5</v>
+        <v>17909.826171875</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>241504.125</v>
+        <v>16422.501953125</v>
       </c>
       <c r="C75" t="n">
-        <v>1421952.75</v>
+        <v>11796.30859375</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>150679.375</v>
+        <v>16545.453125</v>
       </c>
       <c r="C76" t="n">
-        <v>1947114.625</v>
+        <v>20576.78515625</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>163645.109375</v>
+        <v>16377.8251953125</v>
       </c>
       <c r="C77" t="n">
-        <v>1691630.375</v>
+        <v>19098.62109375</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>124166.5859375</v>
+        <v>15341.7255859375</v>
       </c>
       <c r="C78" t="n">
-        <v>1454094</v>
+        <v>12189.0107421875</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>119263.546875</v>
+        <v>16838.12890625</v>
       </c>
       <c r="C79" t="n">
-        <v>1271930.25</v>
+        <v>11633.28125</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>257676.9375</v>
+        <v>16722.26953125</v>
       </c>
       <c r="C80" t="n">
-        <v>1635927.125</v>
+        <v>14373.599609375</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>677444.4375</v>
+        <v>15357.376953125</v>
       </c>
       <c r="C81" t="n">
-        <v>1185479.375</v>
+        <v>23867.671875</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>754837.6875</v>
+        <v>15187.17578125</v>
       </c>
       <c r="C82" t="n">
-        <v>1130948.375</v>
+        <v>17126.712890625</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>298489.21875</v>
+        <v>16550.177734375</v>
       </c>
       <c r="C83" t="n">
-        <v>3036304.75</v>
+        <v>11455.904296875</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>258388.5</v>
+        <v>14568.09765625</v>
       </c>
       <c r="C84" t="n">
-        <v>1827742</v>
+        <v>14381.1923828125</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>221263.796875</v>
+        <v>16121.880859375</v>
       </c>
       <c r="C85" t="n">
-        <v>1979541.5</v>
+        <v>11160.0888671875</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>125850.90625</v>
+        <v>14471.99609375</v>
       </c>
       <c r="C86" t="n">
-        <v>1720654</v>
+        <v>12409.74609375</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>118237.390625</v>
+        <v>18697.916015625</v>
       </c>
       <c r="C87" t="n">
-        <v>2041849.75</v>
+        <v>35956.5</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>121008.453125</v>
+        <v>18405.62890625</v>
       </c>
       <c r="C88" t="n">
-        <v>1452650.75</v>
+        <v>11575.12109375</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>107500.90625</v>
+        <v>14798.576171875</v>
       </c>
       <c r="C89" t="n">
-        <v>1740657.875</v>
+        <v>14951.9580078125</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>117706.5859375</v>
+        <v>14413.2373046875</v>
       </c>
       <c r="C90" t="n">
-        <v>1511410</v>
+        <v>18897.884765625</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>100437.859375</v>
+        <v>15896.1015625</v>
       </c>
       <c r="C91" t="n">
-        <v>1728066.75</v>
+        <v>25564.34375</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>89532.53125</v>
+        <v>17352.421875</v>
       </c>
       <c r="C92" t="n">
-        <v>1265238.75</v>
+        <v>10657.71875</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>94280.953125</v>
+        <v>15907.6103515625</v>
       </c>
       <c r="C93" t="n">
-        <v>1617940</v>
+        <v>13467.2919921875</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>104311.140625</v>
+        <v>15947.748046875</v>
       </c>
       <c r="C94" t="n">
-        <v>1337398.75</v>
+        <v>15783.9580078125</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>218163.890625</v>
+        <v>15167.8720703125</v>
       </c>
       <c r="C95" t="n">
-        <v>1092593.5</v>
+        <v>14976.4326171875</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>111273</v>
+        <v>13448.4892578125</v>
       </c>
       <c r="C96" t="n">
-        <v>1651765.625</v>
+        <v>19935.17578125</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>93138.21875</v>
+        <v>16279.44140625</v>
       </c>
       <c r="C97" t="n">
-        <v>1166260.625</v>
+        <v>13620.900390625</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>112183.921875</v>
+        <v>14960.4814453125</v>
       </c>
       <c r="C98" t="n">
-        <v>1302354.875</v>
+        <v>12177.30078125</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>96363.2421875</v>
+        <v>14266.390625</v>
       </c>
       <c r="C99" t="n">
-        <v>1517412.75</v>
+        <v>15012.9931640625</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>84643.0078125</v>
+        <v>14545.7490234375</v>
       </c>
       <c r="C100" t="n">
-        <v>1334970.75</v>
+        <v>18658.06640625</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>150505.328125</v>
+        <v>14449.4091796875</v>
       </c>
       <c r="C101" t="n">
-        <v>1411758.75</v>
+        <v>14064.01953125</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>158650.359375</v>
+        <v>16549.025390625</v>
       </c>
       <c r="C102" t="n">
-        <v>1045308.5</v>
+        <v>12737.9638671875</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>368618.3125</v>
+        <v>16120.3154296875</v>
       </c>
       <c r="C103" t="n">
-        <v>1034411</v>
+        <v>12614.3876953125</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>364427.71875</v>
+        <v>14143.515625</v>
       </c>
       <c r="C104" t="n">
-        <v>1334603.125</v>
+        <v>16046.328125</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>258982.265625</v>
+        <v>13119.3974609375</v>
       </c>
       <c r="C105" t="n">
-        <v>1504180.375</v>
+        <v>13730.5390625</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>187750.65625</v>
+        <v>15679.1005859375</v>
       </c>
       <c r="C106" t="n">
-        <v>967438.75</v>
+        <v>12685.650390625</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>152016.21875</v>
+        <v>19423.53125</v>
       </c>
       <c r="C107" t="n">
-        <v>2022814.125</v>
+        <v>11218.501953125</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>110966.921875</v>
+        <v>13753.3095703125</v>
       </c>
       <c r="C108" t="n">
-        <v>1380075</v>
+        <v>14284.671875</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>97575.5390625</v>
+        <v>13949.9970703125</v>
       </c>
       <c r="C109" t="n">
-        <v>1887256.125</v>
+        <v>10667.587890625</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>110869.9375</v>
+        <v>17214.1328125</v>
       </c>
       <c r="C110" t="n">
-        <v>1334403</v>
+        <v>22532.361328125</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>136885.453125</v>
+        <v>14889.861328125</v>
       </c>
       <c r="C111" t="n">
-        <v>1848553.25</v>
+        <v>13234.8916015625</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>85464.171875</v>
+        <v>14821.59765625</v>
       </c>
       <c r="C112" t="n">
-        <v>1672650.125</v>
+        <v>23433.96875</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>91775.5546875</v>
+        <v>12771.2216796875</v>
       </c>
       <c r="C113" t="n">
-        <v>1448775.375</v>
+        <v>12877.18359375</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>116476.828125</v>
+        <v>13678.16796875</v>
       </c>
       <c r="C114" t="n">
-        <v>1711947.625</v>
+        <v>16035.4521484375</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>87356.3046875</v>
+        <v>13422.71875</v>
       </c>
       <c r="C115" t="n">
-        <v>1188972.375</v>
+        <v>10102.7978515625</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>104772.40625</v>
+        <v>14738.763671875</v>
       </c>
       <c r="C116" t="n">
-        <v>1318524.25</v>
+        <v>10858.9189453125</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>93726.1484375</v>
+        <v>12777.8115234375</v>
       </c>
       <c r="C117" t="n">
-        <v>1224066.75</v>
+        <v>13426.369140625</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>142981.328125</v>
+        <v>12800.7607421875</v>
       </c>
       <c r="C118" t="n">
-        <v>1335089</v>
+        <v>13142.6083984375</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>83199.734375</v>
+        <v>12915.2412109375</v>
       </c>
       <c r="C119" t="n">
-        <v>1560804.375</v>
+        <v>18520.755859375</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>77421.7734375</v>
+        <v>13963.4765625</v>
       </c>
       <c r="C120" t="n">
-        <v>1699195.5</v>
+        <v>9377.3232421875</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>87001.265625</v>
+        <v>13665.2802734375</v>
       </c>
       <c r="C121" t="n">
-        <v>1516522.75</v>
+        <v>10536.1220703125</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>67037.3671875</v>
+        <v>12703.5947265625</v>
       </c>
       <c r="C122" t="n">
-        <v>1318046.375</v>
+        <v>9592.033203125</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>82486.2265625</v>
+        <v>13453.2900390625</v>
       </c>
       <c r="C123" t="n">
-        <v>1268484</v>
+        <v>9374.42578125</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>70711.9375</v>
+        <v>12755.1552734375</v>
       </c>
       <c r="C124" t="n">
-        <v>1893332</v>
+        <v>10847.583984375</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>100429.140625</v>
+        <v>12384.056640625</v>
       </c>
       <c r="C125" t="n">
-        <v>1150055.125</v>
+        <v>12173.984375</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>89963.7734375</v>
+        <v>13373.779296875</v>
       </c>
       <c r="C126" t="n">
-        <v>1418380</v>
+        <v>9310.611328125</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>79342.46875</v>
+        <v>11887.2470703125</v>
       </c>
       <c r="C127" t="n">
-        <v>1221274.5</v>
+        <v>10021.607421875</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>95638.65625</v>
+        <v>14198.283203125</v>
       </c>
       <c r="C128" t="n">
-        <v>1255422</v>
+        <v>13277.6279296875</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>101185.25</v>
+        <v>13498.509765625</v>
       </c>
       <c r="C129" t="n">
-        <v>1537911</v>
+        <v>13369.505859375</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>165030.46875</v>
+        <v>12304.2060546875</v>
       </c>
       <c r="C130" t="n">
-        <v>1182192.375</v>
+        <v>13834.0478515625</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>121242.2890625</v>
+        <v>11997.4619140625</v>
       </c>
       <c r="C131" t="n">
-        <v>1428372.25</v>
+        <v>12968.7587890625</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>64151.9296875</v>
+        <v>13390.75390625</v>
       </c>
       <c r="C132" t="n">
-        <v>1481479.75</v>
+        <v>9629.537109375</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>65184.58984375</v>
+        <v>11788.734375</v>
       </c>
       <c r="C133" t="n">
-        <v>1751910.5</v>
+        <v>10479.767578125</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>77881.25</v>
+        <v>11610.1123046875</v>
       </c>
       <c r="C134" t="n">
-        <v>1465820</v>
+        <v>9904.587890625</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>66211.59375</v>
+        <v>11805.064453125</v>
       </c>
       <c r="C135" t="n">
-        <v>1320527</v>
+        <v>10318.1611328125</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>138240.90625</v>
+        <v>11874.0751953125</v>
       </c>
       <c r="C136" t="n">
-        <v>976274.0625</v>
+        <v>11442.2744140625</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>420865</v>
+        <v>13414.8134765625</v>
       </c>
       <c r="C137" t="n">
-        <v>1455437.5</v>
+        <v>10454.9306640625</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>229390.265625</v>
+        <v>12106.7529296875</v>
       </c>
       <c r="C138" t="n">
-        <v>932134.3125</v>
+        <v>9509.7666015625</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>169175.015625</v>
+        <v>12552.861328125</v>
       </c>
       <c r="C139" t="n">
-        <v>1658827.125</v>
+        <v>8656.4921875</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>88391.0234375</v>
+        <v>12558.3642578125</v>
       </c>
       <c r="C140" t="n">
-        <v>1668581.25</v>
+        <v>13227.236328125</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>122503.171875</v>
+        <v>11518.546875</v>
       </c>
       <c r="C141" t="n">
-        <v>1712949.75</v>
+        <v>9678.7255859375</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>104680.3203125</v>
+        <v>11795.90234375</v>
       </c>
       <c r="C142" t="n">
-        <v>1647365.125</v>
+        <v>10784.28125</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>86923.7109375</v>
+        <v>12556.5751953125</v>
       </c>
       <c r="C143" t="n">
-        <v>2077404.375</v>
+        <v>10271.5322265625</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>145586.6875</v>
+        <v>11169.41015625</v>
       </c>
       <c r="C144" t="n">
-        <v>1604394</v>
+        <v>10362.7578125</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>78092.953125</v>
+        <v>11751.1640625</v>
       </c>
       <c r="C145" t="n">
-        <v>1699283.875</v>
+        <v>9043.4189453125</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>82078.96875</v>
+        <v>10580.7060546875</v>
       </c>
       <c r="C146" t="n">
-        <v>1317171.375</v>
+        <v>9087.5625</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>65457.48046875</v>
+        <v>11713.759765625</v>
       </c>
       <c r="C147" t="n">
-        <v>1981046.5</v>
+        <v>9996.01171875</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>164065.96875</v>
+        <v>15352.9052734375</v>
       </c>
       <c r="C148" t="n">
-        <v>2447990.5</v>
+        <v>10323.953125</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>181343.59375</v>
+        <v>11601.892578125</v>
       </c>
       <c r="C149" t="n">
-        <v>1605754.5</v>
+        <v>10441.9658203125</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>114783.921875</v>
+        <v>10272.9921875</v>
       </c>
       <c r="C150" t="n">
-        <v>1356628.125</v>
+        <v>8026.1015625</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>76189.765625</v>
+        <v>10061.09375</v>
       </c>
       <c r="C151" t="n">
-        <v>1304851.5</v>
+        <v>8208.958984375</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>81101.421875</v>
+        <v>10065.9501953125</v>
       </c>
       <c r="C152" t="n">
-        <v>1261610.875</v>
+        <v>9323.5810546875</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>91225.03125</v>
+        <v>9626.16796875</v>
       </c>
       <c r="C153" t="n">
-        <v>1312534</v>
+        <v>14876.8525390625</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>62182.09765625</v>
+        <v>11965.73828125</v>
       </c>
       <c r="C154" t="n">
-        <v>1470738.875</v>
+        <v>11700.2177734375</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>58224.6484375</v>
+        <v>10874.1767578125</v>
       </c>
       <c r="C155" t="n">
-        <v>1467246.75</v>
+        <v>12384.1611328125</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>72635.015625</v>
+        <v>10097.115234375</v>
       </c>
       <c r="C156" t="n">
-        <v>990126.3125</v>
+        <v>12313.0615234375</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>84979.546875</v>
+        <v>10139.2412109375</v>
       </c>
       <c r="C157" t="n">
-        <v>1048001.6875</v>
+        <v>9530.9287109375</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>116976.859375</v>
+        <v>11192.2841796875</v>
       </c>
       <c r="C158" t="n">
-        <v>1461548.5</v>
+        <v>8977.3359375</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>89386.09375</v>
+        <v>9093.07421875</v>
       </c>
       <c r="C159" t="n">
-        <v>988795.5</v>
+        <v>8039.72607421875</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>108800.109375</v>
+        <v>9553.357421875</v>
       </c>
       <c r="C160" t="n">
-        <v>1768579.125</v>
+        <v>8247.9189453125</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>72982.7578125</v>
+        <v>8671.8525390625</v>
       </c>
       <c r="C161" t="n">
-        <v>997540.625</v>
+        <v>7573.5908203125</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>113655.5859375</v>
+        <v>10245.56640625</v>
       </c>
       <c r="C162" t="n">
-        <v>1714128.75</v>
+        <v>11115.9658203125</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>123856.3125</v>
+        <v>10345.451171875</v>
       </c>
       <c r="C163" t="n">
-        <v>1606687.125</v>
+        <v>8130.7314453125</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>397405.15625</v>
+        <v>10799.494140625</v>
       </c>
       <c r="C164" t="n">
-        <v>978985.625</v>
+        <v>8217.2685546875</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>315355.9375</v>
+        <v>9126.109375</v>
       </c>
       <c r="C165" t="n">
-        <v>1299101.125</v>
+        <v>10357.4599609375</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>198937.46875</v>
+        <v>8332.48828125</v>
       </c>
       <c r="C166" t="n">
-        <v>2040279</v>
+        <v>9861.423828125</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>144665.390625</v>
+        <v>8483.6259765625</v>
       </c>
       <c r="C167" t="n">
-        <v>2240454</v>
+        <v>8839.1884765625</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>93558.09375</v>
+        <v>10094.34765625</v>
       </c>
       <c r="C168" t="n">
-        <v>1311386.625</v>
+        <v>12677.83984375</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>69958.9375</v>
+        <v>9449.37109375</v>
       </c>
       <c r="C169" t="n">
-        <v>1567563.5</v>
+        <v>11890.853515625</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>81553.8671875</v>
+        <v>9325.5029296875</v>
       </c>
       <c r="C170" t="n">
-        <v>1335058</v>
+        <v>9276.626953125</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>51929.9921875</v>
+        <v>9084.2421875</v>
       </c>
       <c r="C171" t="n">
-        <v>1382489.125</v>
+        <v>9547.3505859375</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>62270.37109375</v>
+        <v>9294.509765625</v>
       </c>
       <c r="C172" t="n">
-        <v>1345631.75</v>
+        <v>8057.58984375</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>67908.71875</v>
+        <v>8643.4287109375</v>
       </c>
       <c r="C173" t="n">
-        <v>1197305.5</v>
+        <v>8750.59765625</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>58524.37109375</v>
+        <v>8982.142578125</v>
       </c>
       <c r="C174" t="n">
-        <v>1510509.875</v>
+        <v>9389.76171875</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>56279.27734375</v>
+        <v>9067.998046875</v>
       </c>
       <c r="C175" t="n">
-        <v>1339490</v>
+        <v>8186.404296875</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>58316.48828125</v>
+        <v>8896.0556640625</v>
       </c>
       <c r="C176" t="n">
-        <v>1581513.625</v>
+        <v>9540.435546875</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>94945.5703125</v>
+        <v>9052.2392578125</v>
       </c>
       <c r="C177" t="n">
-        <v>1723769</v>
+        <v>7064.38525390625</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>114880.6328125</v>
+        <v>7761.576171875</v>
       </c>
       <c r="C178" t="n">
-        <v>2123823.5</v>
+        <v>7914.58642578125</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>106381.8203125</v>
+        <v>7287.55029296875</v>
       </c>
       <c r="C179" t="n">
-        <v>1099751.75</v>
+        <v>7372.39306640625</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>112043.5078125</v>
+        <v>8415.240234375</v>
       </c>
       <c r="C180" t="n">
-        <v>2278620</v>
+        <v>7999.45166015625</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>102220.78125</v>
+        <v>8279.91015625</v>
       </c>
       <c r="C181" t="n">
-        <v>1126784.375</v>
+        <v>7875.92333984375</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>71982.6015625</v>
+        <v>7812.6513671875</v>
       </c>
       <c r="C182" t="n">
-        <v>1485986.75</v>
+        <v>9325.0458984375</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>56939.18359375</v>
+        <v>7614.6845703125</v>
       </c>
       <c r="C183" t="n">
-        <v>1473162.125</v>
+        <v>6992.8896484375</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>64377.33203125</v>
+        <v>8227.0078125</v>
       </c>
       <c r="C184" t="n">
-        <v>1160718.25</v>
+        <v>8804.408203125</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>107375.921875</v>
+        <v>8305.9580078125</v>
       </c>
       <c r="C185" t="n">
-        <v>2442059</v>
+        <v>9318.4365234375</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>326505</v>
+        <v>8662.4462890625</v>
       </c>
       <c r="C186" t="n">
-        <v>1201867.5</v>
+        <v>7383.18359375</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>161833.3125</v>
+        <v>7011.6748046875</v>
       </c>
       <c r="C187" t="n">
-        <v>993953</v>
+        <v>7704.404296875</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>79026.7265625</v>
+        <v>7668.86865234375</v>
       </c>
       <c r="C188" t="n">
-        <v>1181725.625</v>
+        <v>7075.64111328125</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>72792.984375</v>
+        <v>7613.154296875</v>
       </c>
       <c r="C189" t="n">
-        <v>887901.1875</v>
+        <v>9935.6396484375</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>72680.71875</v>
+        <v>7834.99365234375</v>
       </c>
       <c r="C190" t="n">
-        <v>986623.5625</v>
+        <v>8607.232421875</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>58730.75390625</v>
+        <v>7821.76416015625</v>
       </c>
       <c r="C191" t="n">
-        <v>1338134.5</v>
+        <v>8196.1162109375</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>59067.390625</v>
+        <v>6569.5048828125</v>
       </c>
       <c r="C192" t="n">
-        <v>1496238</v>
+        <v>8415.6943359375</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>59909.67578125</v>
+        <v>7720.0341796875</v>
       </c>
       <c r="C193" t="n">
-        <v>1488460.25</v>
+        <v>6806.54541015625</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>65446.21484375</v>
+        <v>7837.11767578125</v>
       </c>
       <c r="C194" t="n">
-        <v>1398137.25</v>
+        <v>7215.6484375</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>58523.375</v>
+        <v>7297.23779296875</v>
       </c>
       <c r="C195" t="n">
-        <v>1284705</v>
+        <v>9839.076171875</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>55128.453125</v>
+        <v>6605.96826171875</v>
       </c>
       <c r="C196" t="n">
-        <v>2110285</v>
+        <v>7433.5283203125</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>107096.2578125</v>
+        <v>7248.0947265625</v>
       </c>
       <c r="C197" t="n">
-        <v>1083642.25</v>
+        <v>8265.23828125</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>74667.40625</v>
+        <v>8229.1904296875</v>
       </c>
       <c r="C198" t="n">
-        <v>1392379.375</v>
+        <v>8270.533203125</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>61255.765625</v>
+        <v>7718.79150390625</v>
       </c>
       <c r="C199" t="n">
-        <v>1158106.625</v>
+        <v>9119.927734375</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>117146.390625</v>
+        <v>6924.63623046875</v>
       </c>
       <c r="C200" t="n">
-        <v>992508.625</v>
+        <v>7097.48828125</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>74049.3359375</v>
+        <v>6641.98291015625</v>
       </c>
       <c r="C201" t="n">
-        <v>1471035.125</v>
+        <v>15732.84765625</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>61249.94140625</v>
+        <v>12466.6005859375</v>
       </c>
       <c r="C202" t="n">
-        <v>1352816.875</v>
+        <v>8531.287109375</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>57383.05859375</v>
+        <v>6658.9775390625</v>
       </c>
       <c r="C203" t="n">
-        <v>1429305.375</v>
+        <v>7751.185546875</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>71307.8671875</v>
+        <v>7732.00244140625</v>
       </c>
       <c r="C204" t="n">
-        <v>1590816.125</v>
+        <v>8005.5654296875</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>51548.15625</v>
+        <v>6961.8955078125</v>
       </c>
       <c r="C205" t="n">
-        <v>1354340.5</v>
+        <v>7168.85693359375</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>57732.6953125</v>
+        <v>6920.9658203125</v>
       </c>
       <c r="C206" t="n">
-        <v>1380818.875</v>
+        <v>7186.98583984375</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>44465.7578125</v>
+        <v>7450.6044921875</v>
       </c>
       <c r="C207" t="n">
-        <v>1266464.25</v>
+        <v>7096.19140625</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>54536.90234375</v>
+        <v>6508.763671875</v>
       </c>
       <c r="C208" t="n">
-        <v>1753100.375</v>
+        <v>7219.76953125</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>55542.1171875</v>
+        <v>6858.0859375</v>
       </c>
       <c r="C209" t="n">
-        <v>1098925.5</v>
+        <v>9362.8701171875</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>56282.4140625</v>
+        <v>7223.79931640625</v>
       </c>
       <c r="C210" t="n">
-        <v>1426213.25</v>
+        <v>9577.4912109375</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>36043.4765625</v>
+        <v>7927.02392578125</v>
       </c>
       <c r="C211" t="n">
-        <v>1086226.75</v>
+        <v>8016.04345703125</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>39011.2265625</v>
+        <v>7553.51953125</v>
       </c>
       <c r="C212" t="n">
-        <v>1603322</v>
+        <v>17163.81640625</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>86067.578125</v>
+        <v>8349.4912109375</v>
       </c>
       <c r="C213" t="n">
-        <v>2244509.5</v>
+        <v>9790.623046875</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>304576.375</v>
+        <v>7589.83349609375</v>
       </c>
       <c r="C214" t="n">
-        <v>2039605.625</v>
+        <v>10322.708984375</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>179299.921875</v>
+        <v>6870.45166015625</v>
       </c>
       <c r="C215" t="n">
-        <v>1416679.5</v>
+        <v>6028.89990234375</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>183683.3125</v>
+        <v>7144.85546875</v>
       </c>
       <c r="C216" t="n">
-        <v>2352786.25</v>
+        <v>7860.32470703125</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>318277.5625</v>
+        <v>6619.9228515625</v>
       </c>
       <c r="C217" t="n">
-        <v>4523004.5</v>
+        <v>8391.22265625</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>611509.3125</v>
+        <v>6699.48193359375</v>
       </c>
       <c r="C218" t="n">
-        <v>1127699.25</v>
+        <v>8158.24462890625</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>151076.890625</v>
+        <v>7752.47265625</v>
       </c>
       <c r="C219" t="n">
-        <v>1702074.75</v>
+        <v>6756.69140625</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>119274.1953125</v>
+        <v>7744.03955078125</v>
       </c>
       <c r="C220" t="n">
-        <v>1302799.375</v>
+        <v>7065.85302734375</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>176348.921875</v>
+        <v>6841.5107421875</v>
       </c>
       <c r="C221" t="n">
-        <v>1602926.5</v>
+        <v>7934.56591796875</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>84867.1171875</v>
+        <v>7133.01904296875</v>
       </c>
       <c r="C222" t="n">
-        <v>1378204.375</v>
+        <v>8316.4267578125</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>89727.921875</v>
+        <v>7137.06884765625</v>
       </c>
       <c r="C223" t="n">
-        <v>1187504.875</v>
+        <v>7465.75048828125</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>54631.47265625</v>
+        <v>6904.0966796875</v>
       </c>
       <c r="C224" t="n">
-        <v>1828099.25</v>
+        <v>7509.0791015625</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>62601.39453125</v>
+        <v>6208.81396484375</v>
       </c>
       <c r="C225" t="n">
-        <v>1091776.125</v>
+        <v>6361.798828125</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>65462.5703125</v>
+        <v>6714.49658203125</v>
       </c>
       <c r="C226" t="n">
-        <v>1682590.75</v>
+        <v>8061.6728515625</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>53293.93359375</v>
+        <v>6493.552734375</v>
       </c>
       <c r="C227" t="n">
-        <v>1005082.75</v>
+        <v>7529.60498046875</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>53870.9453125</v>
+        <v>6377.41357421875</v>
       </c>
       <c r="C228" t="n">
-        <v>1171408.875</v>
+        <v>8698.68359375</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>73181.8515625</v>
+        <v>6659.9560546875</v>
       </c>
       <c r="C229" t="n">
-        <v>1381813.125</v>
+        <v>8653.6669921875</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>64919.47265625</v>
+        <v>7261.587890625</v>
       </c>
       <c r="C230" t="n">
-        <v>1232958.5</v>
+        <v>6498.70361328125</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>81779.5234375</v>
+        <v>7211.7451171875</v>
       </c>
       <c r="C231" t="n">
-        <v>1898984.375</v>
+        <v>31405.27734375</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>70320.7265625</v>
+        <v>9602.7666015625</v>
       </c>
       <c r="C232" t="n">
-        <v>961923.6875</v>
+        <v>10629.58984375</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>58997.97265625</v>
+        <v>7154.18408203125</v>
       </c>
       <c r="C233" t="n">
-        <v>1286699.375</v>
+        <v>6878.943359375</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>43887.453125</v>
+        <v>6823.0654296875</v>
       </c>
       <c r="C234" t="n">
-        <v>1236401</v>
+        <v>7496.7841796875</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>61639.48828125</v>
+        <v>6660.8203125</v>
       </c>
       <c r="C235" t="n">
-        <v>1812069.375</v>
+        <v>8121.4677734375</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>45899.046875</v>
+        <v>6666.564453125</v>
       </c>
       <c r="C236" t="n">
-        <v>862854.75</v>
+        <v>8041.57373046875</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>139536.640625</v>
+        <v>7609.12548828125</v>
       </c>
       <c r="C237" t="n">
-        <v>1483976.75</v>
+        <v>7255.34130859375</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>95302.3359375</v>
+        <v>6358.765625</v>
       </c>
       <c r="C238" t="n">
-        <v>1268878.375</v>
+        <v>6717.52392578125</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>98867.09375</v>
+        <v>7480.75146484375</v>
       </c>
       <c r="C239" t="n">
-        <v>1253596.375</v>
+        <v>9423.197265625</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>53719.63671875</v>
+        <v>7487.2763671875</v>
       </c>
       <c r="C240" t="n">
-        <v>1909041.125</v>
+        <v>6817.94482421875</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>49267.38671875</v>
+        <v>6120.07080078125</v>
       </c>
       <c r="C241" t="n">
-        <v>808789.5</v>
+        <v>8124.955078125</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>65958.015625</v>
+        <v>9233.384765625</v>
       </c>
       <c r="C242" t="n">
-        <v>1599866.75</v>
+        <v>11542.29296875</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>55082.234375</v>
+        <v>7595.375</v>
       </c>
       <c r="C243" t="n">
-        <v>1065509.875</v>
+        <v>8040.255859375</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>61627.5859375</v>
+        <v>7339.44384765625</v>
       </c>
       <c r="C244" t="n">
-        <v>1362928.875</v>
+        <v>7013.619140625</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>44093.515625</v>
+        <v>6905.49072265625</v>
       </c>
       <c r="C245" t="n">
-        <v>1137418</v>
+        <v>9896.0234375</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>35224.17578125</v>
+        <v>7556.11083984375</v>
       </c>
       <c r="C246" t="n">
-        <v>1446520.25</v>
+        <v>7574.4287109375</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>33784.08984375</v>
+        <v>7343.626953125</v>
       </c>
       <c r="C247" t="n">
-        <v>1542489.375</v>
+        <v>6661.5302734375</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>39445.453125</v>
+        <v>6632.5224609375</v>
       </c>
       <c r="C248" t="n">
-        <v>1475194.375</v>
+        <v>6178.70947265625</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>57239.58984375</v>
+        <v>6441.4091796875</v>
       </c>
       <c r="C249" t="n">
-        <v>1259487.75</v>
+        <v>7011.2783203125</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>47195.31640625</v>
+        <v>6431.77099609375</v>
       </c>
       <c r="C250" t="n">
-        <v>1262902.25</v>
+        <v>10116.158203125</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>50146.984375</v>
+        <v>6320.55078125</v>
       </c>
       <c r="C251" t="n">
-        <v>680221.75</v>
+        <v>7014.85009765625</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>50111.125</v>
+        <v>7402.16455078125</v>
       </c>
       <c r="C252" t="n">
-        <v>1484716.5</v>
+        <v>7018.04345703125</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>30897.392578125</v>
+        <v>6512.6826171875</v>
       </c>
       <c r="C253" t="n">
-        <v>892672.6875</v>
+        <v>6879.4111328125</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>85340.078125</v>
+        <v>6383.7705078125</v>
       </c>
       <c r="C254" t="n">
-        <v>1742378.5</v>
+        <v>8982.759765625</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>69960.5703125</v>
+        <v>8211.8203125</v>
       </c>
       <c r="C255" t="n">
-        <v>1272409</v>
+        <v>9105.3466796875</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>47510.5390625</v>
+        <v>6767.5419921875</v>
       </c>
       <c r="C256" t="n">
-        <v>1081781.125</v>
+        <v>6891.84375</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>35980.875</v>
+        <v>7183.943359375</v>
       </c>
       <c r="C257" t="n">
-        <v>1279034</v>
+        <v>6424.65478515625</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>35282.0859375</v>
+        <v>6193.02294921875</v>
       </c>
       <c r="C258" t="n">
-        <v>1080720</v>
+        <v>9997.791015625</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>34763.18359375</v>
+        <v>7827.1513671875</v>
       </c>
       <c r="C259" t="n">
-        <v>1458261</v>
+        <v>10247.9580078125</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>39214.6171875</v>
+        <v>6984.8935546875</v>
       </c>
       <c r="C260" t="n">
-        <v>1241990.625</v>
+        <v>6392.9169921875</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>34660.45703125</v>
+        <v>6875.40380859375</v>
       </c>
       <c r="C261" t="n">
-        <v>852140.25</v>
+        <v>6746.681640625</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>92230.9140625</v>
+        <v>6647.89306640625</v>
       </c>
       <c r="C262" t="n">
-        <v>1269405.125</v>
+        <v>7919.03076171875</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>102611.3125</v>
+        <v>6172.083984375</v>
       </c>
       <c r="C263" t="n">
-        <v>848277.9375</v>
+        <v>8271.04296875</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>341492.5</v>
+        <v>5820.87646484375</v>
       </c>
       <c r="C264" t="n">
-        <v>1176158.375</v>
+        <v>7923.7607421875</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>98270.8359375</v>
+        <v>7677.34033203125</v>
       </c>
       <c r="C265" t="n">
-        <v>952498.3125</v>
+        <v>8113.4482421875</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>133533.359375</v>
+        <v>7970.185546875</v>
       </c>
       <c r="C266" t="n">
-        <v>564238.9375</v>
+        <v>6276.78955078125</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>278545.59375</v>
+        <v>6462.5234375</v>
       </c>
       <c r="C267" t="n">
-        <v>1489098.375</v>
+        <v>8124.64990234375</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>269373.625</v>
+        <v>6249.76708984375</v>
       </c>
       <c r="C268" t="n">
-        <v>740426.5</v>
+        <v>6495.548828125</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>102158.6328125</v>
+        <v>5589.2119140625</v>
       </c>
       <c r="C269" t="n">
-        <v>924706.375</v>
+        <v>8089.35546875</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>92578.5546875</v>
+        <v>5738.2705078125</v>
       </c>
       <c r="C270" t="n">
-        <v>816851</v>
+        <v>8083.71337890625</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>51424.38671875</v>
+        <v>9133.27734375</v>
       </c>
       <c r="C271" t="n">
-        <v>1099084.875</v>
+        <v>7275.75048828125</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>46228.37109375</v>
+        <v>6859.70458984375</v>
       </c>
       <c r="C272" t="n">
-        <v>1001082.25</v>
+        <v>10867.2314453125</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>46580.8125</v>
+        <v>6956.18994140625</v>
       </c>
       <c r="C273" t="n">
-        <v>1184073.5</v>
+        <v>12463.9794921875</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>67821.3359375</v>
+        <v>6897.97412109375</v>
       </c>
       <c r="C274" t="n">
-        <v>1236822</v>
+        <v>10118.7685546875</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>427033.5</v>
+        <v>9400.38671875</v>
       </c>
       <c r="C275" t="n">
-        <v>624488.125</v>
+        <v>12919.4521484375</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>521828.9375</v>
+        <v>7573.3603515625</v>
       </c>
       <c r="C276" t="n">
-        <v>1025411.75</v>
+        <v>9529.443359375</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>172057.703125</v>
+        <v>6663.625</v>
       </c>
       <c r="C277" t="n">
-        <v>1208966</v>
+        <v>6764.208984375</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>63211.8828125</v>
+        <v>6121.38671875</v>
       </c>
       <c r="C278" t="n">
-        <v>1102749.875</v>
+        <v>8231.8388671875</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>85153.859375</v>
+        <v>6139.10888671875</v>
       </c>
       <c r="C279" t="n">
-        <v>1068893.125</v>
+        <v>6417.3740234375</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>69112.2109375</v>
+        <v>6874.99072265625</v>
       </c>
       <c r="C280" t="n">
-        <v>1158877.75</v>
+        <v>7296.67529296875</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>67125.4140625</v>
+        <v>6209.798828125</v>
       </c>
       <c r="C281" t="n">
-        <v>1052723.125</v>
+        <v>5755.291015625</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>52614.50390625</v>
+        <v>6944.4912109375</v>
       </c>
       <c r="C282" t="n">
-        <v>1018524.875</v>
+        <v>6305.8203125</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>26371.970703125</v>
+        <v>6233.12060546875</v>
       </c>
       <c r="C283" t="n">
-        <v>1419472</v>
+        <v>6125.1953125</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>23268.3046875</v>
+        <v>6407.9375</v>
       </c>
       <c r="C284" t="n">
-        <v>989037</v>
+        <v>6134.525390625</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>49370.58203125</v>
+        <v>6598.3408203125</v>
       </c>
       <c r="C285" t="n">
-        <v>1585763.75</v>
+        <v>6499.1484375</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>55096.22265625</v>
+        <v>5899.4697265625</v>
       </c>
       <c r="C286" t="n">
-        <v>956273.1875</v>
+        <v>7876.451171875</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>87198.8359375</v>
+        <v>6047.48681640625</v>
       </c>
       <c r="C287" t="n">
-        <v>1206069.25</v>
+        <v>6808.4814453125</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>206854</v>
+        <v>6172.34716796875</v>
       </c>
       <c r="C288" t="n">
-        <v>1119844.75</v>
+        <v>6183.62548828125</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>131647.640625</v>
+        <v>6182.05322265625</v>
       </c>
       <c r="C289" t="n">
-        <v>1331511.75</v>
+        <v>7192.57080078125</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>162745.09375</v>
+        <v>11438.3310546875</v>
       </c>
       <c r="C290" t="n">
-        <v>1849877</v>
+        <v>12511.7314453125</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>137870.234375</v>
+        <v>7509.6748046875</v>
       </c>
       <c r="C291" t="n">
-        <v>1349749.5</v>
+        <v>7979.560546875</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>79753.7265625</v>
+        <v>7659.26123046875</v>
       </c>
       <c r="C292" t="n">
-        <v>1426484.125</v>
+        <v>5786.95458984375</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>77383.09375</v>
+        <v>6726.70068359375</v>
       </c>
       <c r="C293" t="n">
-        <v>988883.6875</v>
+        <v>6018.69189453125</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>87752.828125</v>
+        <v>6018.79931640625</v>
       </c>
       <c r="C294" t="n">
-        <v>1178857.625</v>
+        <v>5513.20654296875</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>34002.39453125</v>
+        <v>6579.009765625</v>
       </c>
       <c r="C295" t="n">
-        <v>1358455.75</v>
+        <v>6746.36279296875</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>26512.11328125</v>
+        <v>6244.59033203125</v>
       </c>
       <c r="C296" t="n">
-        <v>907428.3125</v>
+        <v>6087.43896484375</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>31125.142578125</v>
+        <v>5870.69873046875</v>
       </c>
       <c r="C297" t="n">
-        <v>1257473.125</v>
+        <v>5322.6484375</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>52477.484375</v>
+        <v>6237.31787109375</v>
       </c>
       <c r="C298" t="n">
-        <v>1277667.375</v>
+        <v>9271.591796875</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>27843.123046875</v>
+        <v>6213.52490234375</v>
       </c>
       <c r="C299" t="n">
-        <v>1464346.375</v>
+        <v>5583.31640625</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>23432.25390625</v>
+        <v>7392.36328125</v>
       </c>
       <c r="C300" t="n">
-        <v>1254148.75</v>
+        <v>8128.08544921875</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>54152.1640625</v>
+        <v>6790.99853515625</v>
       </c>
       <c r="C301" t="n">
-        <v>1671817.375</v>
+        <v>6835.70556640625</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>40888.45703125</v>
+        <v>5852.62109375</v>
       </c>
       <c r="C302" t="n">
-        <v>1199919.25</v>
+        <v>6756.30908203125</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>27769.3671875</v>
+        <v>6546.40087890625</v>
       </c>
       <c r="C303" t="n">
-        <v>1327561.375</v>
+        <v>6969.29052734375</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>41003.20703125</v>
+        <v>7097.37255859375</v>
       </c>
       <c r="C304" t="n">
-        <v>1026458.4375</v>
+        <v>5456.28662109375</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>32681.466796875</v>
+        <v>6993.64208984375</v>
       </c>
       <c r="C305" t="n">
-        <v>1286698.375</v>
+        <v>6857.11376953125</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>26059.650390625</v>
+        <v>5955.25537109375</v>
       </c>
       <c r="C306" t="n">
-        <v>1286898.75</v>
+        <v>5890.28076171875</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>51124</v>
+        <v>6346.83984375</v>
       </c>
       <c r="C307" t="n">
-        <v>799673.0625</v>
+        <v>6302.5087890625</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>37936.5078125</v>
+        <v>6258.6005859375</v>
       </c>
       <c r="C308" t="n">
-        <v>1090120.5</v>
+        <v>6538.04833984375</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>48555.65234375</v>
+        <v>5825.45263671875</v>
       </c>
       <c r="C309" t="n">
-        <v>1459020.625</v>
+        <v>7757.37548828125</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>33566.0234375</v>
+        <v>6626.013671875</v>
       </c>
       <c r="C310" t="n">
-        <v>927176.625</v>
+        <v>6619.4599609375</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>24355.39453125</v>
+        <v>5741.71435546875</v>
       </c>
       <c r="C311" t="n">
-        <v>1233402.5</v>
+        <v>6381.7802734375</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>22014.5234375</v>
+        <v>5631.39306640625</v>
       </c>
       <c r="C312" t="n">
-        <v>1262038</v>
+        <v>6296.6953125</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>19229.4375</v>
+        <v>6001.98828125</v>
       </c>
       <c r="C313" t="n">
-        <v>1181407.75</v>
+        <v>8566.8037109375</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>26919.16796875</v>
+        <v>5670.48486328125</v>
       </c>
       <c r="C314" t="n">
-        <v>1375075.375</v>
+        <v>5559.310546875</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>40294.77734375</v>
+        <v>6286.94189453125</v>
       </c>
       <c r="C315" t="n">
-        <v>1260875.375</v>
+        <v>12654.0458984375</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>26513.291015625</v>
+        <v>7169.36962890625</v>
       </c>
       <c r="C316" t="n">
-        <v>1368161</v>
+        <v>4726.21630859375</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>34189.51953125</v>
+        <v>6191.74658203125</v>
       </c>
       <c r="C317" t="n">
-        <v>1121535.75</v>
+        <v>6155.626953125</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>26096.62890625</v>
+        <v>7904.126953125</v>
       </c>
       <c r="C318" t="n">
-        <v>1288596.5</v>
+        <v>7021.85693359375</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>38278.5546875</v>
+        <v>5931.255859375</v>
       </c>
       <c r="C319" t="n">
-        <v>1051322.75</v>
+        <v>5267.47314453125</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>27067.97265625</v>
+        <v>5819.19384765625</v>
       </c>
       <c r="C320" t="n">
-        <v>1104197</v>
+        <v>6561.30029296875</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>23976.302734375</v>
+        <v>7181.21826171875</v>
       </c>
       <c r="C321" t="n">
-        <v>1179170</v>
+        <v>9533.3515625</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>16301.529296875</v>
+        <v>5473.5693359375</v>
       </c>
       <c r="C322" t="n">
-        <v>1029153.8125</v>
+        <v>10368.12890625</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>25701.81640625</v>
+        <v>6688.40380859375</v>
       </c>
       <c r="C323" t="n">
-        <v>1137707.375</v>
+        <v>7395.49169921875</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>33879.109375</v>
+        <v>6480.3486328125</v>
       </c>
       <c r="C324" t="n">
-        <v>1175738.125</v>
+        <v>5740.1328125</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>27975.078125</v>
+        <v>5761.1103515625</v>
       </c>
       <c r="C325" t="n">
-        <v>850945.875</v>
+        <v>5538.94287109375</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>32401.779296875</v>
+        <v>6126.69384765625</v>
       </c>
       <c r="C326" t="n">
-        <v>1161863.125</v>
+        <v>5752.84423828125</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>25010.470703125</v>
+        <v>6099.5078125</v>
       </c>
       <c r="C327" t="n">
-        <v>934595.625</v>
+        <v>7126.2783203125</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>41805.12890625</v>
+        <v>5570.91162109375</v>
       </c>
       <c r="C328" t="n">
-        <v>1080796.5</v>
+        <v>6225.29541015625</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>47428.19921875</v>
+        <v>6071.33837890625</v>
       </c>
       <c r="C329" t="n">
-        <v>1134691.75</v>
+        <v>7198.68798828125</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>43627.68359375</v>
+        <v>5821.35986328125</v>
       </c>
       <c r="C330" t="n">
-        <v>990507.875</v>
+        <v>7122.32470703125</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>37418.33203125</v>
+        <v>5707.89111328125</v>
       </c>
       <c r="C331" t="n">
-        <v>832752.75</v>
+        <v>6451.83984375</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>34683.7265625</v>
+        <v>7081.0078125</v>
       </c>
       <c r="C332" t="n">
-        <v>1222524.125</v>
+        <v>8960.876953125</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>47292.5546875</v>
+        <v>8235.7841796875</v>
       </c>
       <c r="C333" t="n">
-        <v>1559235.25</v>
+        <v>6358.76708984375</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>57210.52734375</v>
+        <v>5864.78662109375</v>
       </c>
       <c r="C334" t="n">
-        <v>1432093.625</v>
+        <v>5116.70947265625</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>30092.32421875</v>
+        <v>6804.1806640625</v>
       </c>
       <c r="C335" t="n">
-        <v>1398521.375</v>
+        <v>6561.03564453125</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>42078.98828125</v>
+        <v>6973.8486328125</v>
       </c>
       <c r="C336" t="n">
-        <v>1326393.875</v>
+        <v>6383.880859375</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>23852.005859375</v>
+        <v>5636.23388671875</v>
       </c>
       <c r="C337" t="n">
-        <v>1099996.5</v>
+        <v>8518.40234375</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>20425.51171875</v>
+        <v>8410.4169921875</v>
       </c>
       <c r="C338" t="n">
-        <v>958355.3125</v>
+        <v>6225.587890625</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>37097.0078125</v>
+        <v>6672.044921875</v>
       </c>
       <c r="C339" t="n">
-        <v>1467516</v>
+        <v>6072.060546875</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>25112.740234375</v>
+        <v>5835.98291015625</v>
       </c>
       <c r="C340" t="n">
-        <v>1146542</v>
+        <v>6539.62548828125</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>23689.171875</v>
+        <v>5757.3828125</v>
       </c>
       <c r="C341" t="n">
-        <v>1316909.875</v>
+        <v>5683.69580078125</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>39458.6328125</v>
+        <v>6465.48779296875</v>
       </c>
       <c r="C342" t="n">
-        <v>947365.3125</v>
+        <v>5829.0078125</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>34639.8046875</v>
+        <v>7112.36279296875</v>
       </c>
       <c r="C343" t="n">
-        <v>1203949.125</v>
+        <v>9995.0087890625</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>35827.6953125</v>
+        <v>7823.587890625</v>
       </c>
       <c r="C344" t="n">
-        <v>975057.6875</v>
+        <v>7419.458984375</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>86721.765625</v>
+        <v>6078.23095703125</v>
       </c>
       <c r="C345" t="n">
-        <v>608794.1875</v>
+        <v>5472.87109375</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>71423.9140625</v>
+        <v>5803.68310546875</v>
       </c>
       <c r="C346" t="n">
-        <v>1476724.25</v>
+        <v>7938.70458984375</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>50369.57421875</v>
+        <v>6372.4140625</v>
       </c>
       <c r="C347" t="n">
-        <v>908753.4375</v>
+        <v>8898.7724609375</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>87643.2109375</v>
+        <v>8395.6943359375</v>
       </c>
       <c r="C348" t="n">
-        <v>2221122.75</v>
+        <v>6675.06494140625</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>124409.828125</v>
+        <v>5222.08642578125</v>
       </c>
       <c r="C349" t="n">
-        <v>1117226.125</v>
+        <v>8533.1875</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>48684.7421875</v>
+        <v>5899.44677734375</v>
       </c>
       <c r="C350" t="n">
-        <v>1504067.5</v>
+        <v>5459.421875</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>39488.375</v>
+        <v>5715.51123046875</v>
       </c>
       <c r="C351" t="n">
-        <v>1543764.375</v>
+        <v>6649.2490234375</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>53237.8984375</v>
+        <v>6467.66162109375</v>
       </c>
       <c r="C352" t="n">
-        <v>928643.625</v>
+        <v>6498.287109375</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>48565.0859375</v>
+        <v>5809.93212890625</v>
       </c>
       <c r="C353" t="n">
-        <v>1410725.25</v>
+        <v>5835.38037109375</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>27058.341796875</v>
+        <v>8084.40625</v>
       </c>
       <c r="C354" t="n">
-        <v>1015238.125</v>
+        <v>4902.75390625</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>23453.310546875</v>
+        <v>5775.69482421875</v>
       </c>
       <c r="C355" t="n">
-        <v>1159586.875</v>
+        <v>5653.30029296875</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>29933.029296875</v>
+        <v>5285.4443359375</v>
       </c>
       <c r="C356" t="n">
-        <v>1074461.875</v>
+        <v>5955.6943359375</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>26267.4375</v>
+        <v>5794.42626953125</v>
       </c>
       <c r="C357" t="n">
-        <v>996854</v>
+        <v>6258.49658203125</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>19115.4296875</v>
+        <v>5992.30908203125</v>
       </c>
       <c r="C358" t="n">
-        <v>1092250.375</v>
+        <v>9043.5537109375</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>20993.572265625</v>
+        <v>6810.4970703125</v>
       </c>
       <c r="C359" t="n">
-        <v>1539880.25</v>
+        <v>19760.220703125</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>35988.89453125</v>
+        <v>7804.7197265625</v>
       </c>
       <c r="C360" t="n">
-        <v>1047735.875</v>
+        <v>6648.44384765625</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>28297.935546875</v>
+        <v>6090.51416015625</v>
       </c>
       <c r="C361" t="n">
-        <v>1297723.375</v>
+        <v>5206.36572265625</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>22043.302734375</v>
+        <v>5331.27294921875</v>
       </c>
       <c r="C362" t="n">
-        <v>949997.25</v>
+        <v>5076.65478515625</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>30296.79296875</v>
+        <v>5748.22705078125</v>
       </c>
       <c r="C363" t="n">
-        <v>1404484.875</v>
+        <v>5112.98681640625</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>29576.123046875</v>
+        <v>5225.072265625</v>
       </c>
       <c r="C364" t="n">
-        <v>1242350.75</v>
+        <v>6984.15576171875</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>26335.07421875</v>
+        <v>5708.330078125</v>
       </c>
       <c r="C365" t="n">
-        <v>1236429.75</v>
+        <v>5631.94775390625</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>19927.876953125</v>
+        <v>5560.34423828125</v>
       </c>
       <c r="C366" t="n">
-        <v>1568033.625</v>
+        <v>5974.03955078125</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>25190.2421875</v>
+        <v>5542.2412109375</v>
       </c>
       <c r="C367" t="n">
-        <v>1133989.875</v>
+        <v>8202.1474609375</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>40626.07421875</v>
+        <v>6367.3251953125</v>
       </c>
       <c r="C368" t="n">
-        <v>1461054.375</v>
+        <v>8413.91015625</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>17153.3125</v>
+        <v>7649.4052734375</v>
       </c>
       <c r="C369" t="n">
-        <v>1090240.75</v>
+        <v>13774.716796875</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>14409.2373046875</v>
+        <v>7668.19091796875</v>
       </c>
       <c r="C370" t="n">
-        <v>1161350.875</v>
+        <v>6606.66357421875</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>25859.166015625</v>
+        <v>5726.12646484375</v>
       </c>
       <c r="C371" t="n">
-        <v>1082823.25</v>
+        <v>7255.06494140625</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>18666.66796875</v>
+        <v>5582.8671875</v>
       </c>
       <c r="C372" t="n">
-        <v>1089480.25</v>
+        <v>5631.306640625</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>25756.123046875</v>
+        <v>5871.56494140625</v>
       </c>
       <c r="C373" t="n">
-        <v>1113292</v>
+        <v>6855.48779296875</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>24120.10546875</v>
+        <v>5044.94775390625</v>
       </c>
       <c r="C374" t="n">
-        <v>1251832.875</v>
+        <v>6635.55810546875</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>14249.8232421875</v>
+        <v>5013.40966796875</v>
       </c>
       <c r="C375" t="n">
-        <v>1221329.625</v>
+        <v>6186.39013671875</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>12249.0263671875</v>
+        <v>5299.72216796875</v>
       </c>
       <c r="C376" t="n">
-        <v>1057644.625</v>
+        <v>6010.7900390625</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>14182.3330078125</v>
+        <v>4801.505859375</v>
       </c>
       <c r="C377" t="n">
-        <v>1564959.125</v>
+        <v>13605.359375</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>30856.515625</v>
+        <v>6040.6416015625</v>
       </c>
       <c r="C378" t="n">
-        <v>820257.4375</v>
+        <v>6545.91552734375</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>34378.08203125</v>
+        <v>5927.779296875</v>
       </c>
       <c r="C379" t="n">
-        <v>1080332.75</v>
+        <v>5480.54443359375</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>14286.2919921875</v>
+        <v>6984.25341796875</v>
       </c>
       <c r="C380" t="n">
-        <v>907768.25</v>
+        <v>5030.80615234375</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>52998.421875</v>
+        <v>5485.47705078125</v>
       </c>
       <c r="C381" t="n">
-        <v>1128611.375</v>
+        <v>8594.7998046875</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>78208.375</v>
+        <v>5651.890625</v>
       </c>
       <c r="C382" t="n">
-        <v>919656.75</v>
+        <v>5507.74365234375</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>48834.45703125</v>
+        <v>5717.5986328125</v>
       </c>
       <c r="C383" t="n">
-        <v>970308.375</v>
+        <v>8211.25390625</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>45874.7890625</v>
+        <v>6096.7607421875</v>
       </c>
       <c r="C384" t="n">
-        <v>1403415.25</v>
+        <v>4865.3486328125</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>27709.45703125</v>
+        <v>5800.908203125</v>
       </c>
       <c r="C385" t="n">
-        <v>1123197.125</v>
+        <v>7605.0517578125</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>54626.765625</v>
+        <v>6215.3955078125</v>
       </c>
       <c r="C386" t="n">
-        <v>755170.3125</v>
+        <v>6922.95703125</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>67437.9453125</v>
+        <v>6122.6494140625</v>
       </c>
       <c r="C387" t="n">
-        <v>1109316.875</v>
+        <v>8862.912109375</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>85361.109375</v>
+        <v>6522.79931640625</v>
       </c>
       <c r="C388" t="n">
-        <v>1490623.25</v>
+        <v>5716.5361328125</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>47155.38671875</v>
+        <v>5110.15869140625</v>
       </c>
       <c r="C389" t="n">
-        <v>1519183.5</v>
+        <v>8693.7138671875</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>66362.140625</v>
+        <v>6120.962890625</v>
       </c>
       <c r="C390" t="n">
-        <v>1063336.25</v>
+        <v>8007.75048828125</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>169394.234375</v>
+        <v>5435.5419921875</v>
       </c>
       <c r="C391" t="n">
-        <v>1555282.625</v>
+        <v>5991.26318359375</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>139596.96875</v>
+        <v>5990.2236328125</v>
       </c>
       <c r="C392" t="n">
-        <v>1473562.375</v>
+        <v>5228.97705078125</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>58279</v>
+        <v>5001.830078125</v>
       </c>
       <c r="C393" t="n">
-        <v>1247970.75</v>
+        <v>6069.20849609375</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>37540.66796875</v>
+        <v>5021.57666015625</v>
       </c>
       <c r="C394" t="n">
-        <v>2013344.25</v>
+        <v>5208.77294921875</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>91011.609375</v>
+        <v>6789.70947265625</v>
       </c>
       <c r="C395" t="n">
-        <v>933373.5</v>
+        <v>20181.427734375</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>75475.6796875</v>
+        <v>7810.9228515625</v>
       </c>
       <c r="C396" t="n">
-        <v>1632294.25</v>
+        <v>28072.958984375</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>37061.11328125</v>
+        <v>9337.75</v>
       </c>
       <c r="C397" t="n">
-        <v>1141761.625</v>
+        <v>6390.32666015625</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>21548.705078125</v>
+        <v>5696.7802734375</v>
       </c>
       <c r="C398" t="n">
-        <v>1751321.5</v>
+        <v>6396.83837890625</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>26620.56640625</v>
+        <v>5420.8115234375</v>
       </c>
       <c r="C399" t="n">
-        <v>1192194.5</v>
+        <v>7610.73388671875</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>14573.759765625</v>
+        <v>5926.0146484375</v>
       </c>
       <c r="C400" t="n">
-        <v>1267049.75</v>
+        <v>5511.01904296875</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>10773.765625</v>
+        <v>5224.8701171875</v>
       </c>
       <c r="C401" t="n">
-        <v>1284022.125</v>
+        <v>6335.171875</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>16973.787109375</v>
+        <v>5418.8486328125</v>
       </c>
       <c r="C402" t="n">
-        <v>1109250.375</v>
+        <v>6827.98046875</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>14941.2724609375</v>
+        <v>5940.47900390625</v>
       </c>
       <c r="C403" t="n">
-        <v>1294947.5</v>
+        <v>18327.662109375</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>11342.8271484375</v>
+        <v>7221.79248046875</v>
       </c>
       <c r="C404" t="n">
-        <v>1096264.25</v>
+        <v>10577.6572265625</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>12897.16796875</v>
+        <v>7729.400390625</v>
       </c>
       <c r="C405" t="n">
-        <v>974823.5</v>
+        <v>46875</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>31691.265625</v>
+        <v>11954.931640625</v>
       </c>
       <c r="C406" t="n">
-        <v>1143662</v>
+        <v>9629.2255859375</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>18739.12890625</v>
+        <v>6182.5751953125</v>
       </c>
       <c r="C407" t="n">
-        <v>1555886.875</v>
+        <v>6349.935546875</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>33766.80078125</v>
+        <v>5097.78759765625</v>
       </c>
       <c r="C408" t="n">
-        <v>949461.8125</v>
+        <v>6730.35498046875</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>63641.265625</v>
+        <v>6328.36083984375</v>
       </c>
       <c r="C409" t="n">
-        <v>1095514</v>
+        <v>8547.583984375</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>24781.197265625</v>
+        <v>5757.06005859375</v>
       </c>
       <c r="C410" t="n">
-        <v>1347989.25</v>
+        <v>7357.6298828125</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>19012.6328125</v>
+        <v>4948.36572265625</v>
       </c>
       <c r="C411" t="n">
-        <v>815369.0625</v>
+        <v>6013.7646484375</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>21303.4765625</v>
+        <v>5280.1005859375</v>
       </c>
       <c r="C412" t="n">
-        <v>1515490.125</v>
+        <v>7814.85986328125</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>33735.80078125</v>
+        <v>5551.67578125</v>
       </c>
       <c r="C413" t="n">
-        <v>1137075.625</v>
+        <v>5965.13818359375</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>53204.3984375</v>
+        <v>6226.58154296875</v>
       </c>
       <c r="C414" t="n">
-        <v>1158307.125</v>
+        <v>6026.06689453125</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>31832.0390625</v>
+        <v>6181.4091796875</v>
       </c>
       <c r="C415" t="n">
-        <v>1172404.5</v>
+        <v>6534.5966796875</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>11152.1630859375</v>
+        <v>5615.04345703125</v>
       </c>
       <c r="C416" t="n">
-        <v>1142383.75</v>
+        <v>5961.939453125</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>10272.1845703125</v>
+        <v>5118.4853515625</v>
       </c>
       <c r="C417" t="n">
-        <v>1328076.25</v>
+        <v>8685.62890625</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>20659.224609375</v>
+        <v>5916.884765625</v>
       </c>
       <c r="C418" t="n">
-        <v>1215351.25</v>
+        <v>6965.3271484375</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>19301.484375</v>
+        <v>5325.1533203125</v>
       </c>
       <c r="C419" t="n">
-        <v>1254782.625</v>
+        <v>6504.90283203125</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>13102.7314453125</v>
+        <v>5195.7900390625</v>
       </c>
       <c r="C420" t="n">
-        <v>1236654.75</v>
+        <v>6714.68408203125</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>10628.7041015625</v>
+        <v>5117.486328125</v>
       </c>
       <c r="C421" t="n">
-        <v>1011201.0625</v>
+        <v>6458.060546875</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>12082.7373046875</v>
+        <v>5698.81298828125</v>
       </c>
       <c r="C422" t="n">
-        <v>1402481.375</v>
+        <v>6326.8310546875</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>13686.2255859375</v>
+        <v>5557.45654296875</v>
       </c>
       <c r="C423" t="n">
-        <v>1260433.875</v>
+        <v>5363.24951171875</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>18706.84375</v>
+        <v>4922.8603515625</v>
       </c>
       <c r="C424" t="n">
-        <v>1026249.9375</v>
+        <v>5705.25537109375</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>33447.984375</v>
+        <v>5667.71044921875</v>
       </c>
       <c r="C425" t="n">
-        <v>1018130.0625</v>
+        <v>5587.3408203125</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>60166.71484375</v>
+        <v>5994.97509765625</v>
       </c>
       <c r="C426" t="n">
-        <v>1532406.75</v>
+        <v>6111.1904296875</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>84744.9765625</v>
+        <v>6039.34423828125</v>
       </c>
       <c r="C427" t="n">
-        <v>1421742</v>
+        <v>6299.87890625</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,76 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>78613.015625</v>
+        <v>5078.7041015625</v>
       </c>
       <c r="C428" t="n">
-        <v>764150.9375</v>
+        <v>5222.15869140625</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="n">
+        <v>4519.99560546875</v>
+      </c>
+      <c r="C429" t="n">
+        <v>6994.078125</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>5370.58837890625</v>
+      </c>
+      <c r="C430" t="n">
+        <v>6991.03564453125</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>5216.1201171875</v>
+      </c>
+      <c r="C431" t="n">
+        <v>8479.3095703125</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="n">
+        <v>6351.515625</v>
+      </c>
+      <c r="C432" t="n">
+        <v>5976.59423828125</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="n">
+        <v>5381.404296875</v>
+      </c>
+      <c r="C433" t="n">
+        <v>6134.8642578125</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="n">
+        <v>5248.1533203125</v>
+      </c>
+      <c r="C434" t="n">
+        <v>5419.51513671875</v>
       </c>
     </row>
   </sheetData>
